--- a/docs/Test_Database.xlsx
+++ b/docs/Test_Database.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="31160" windowHeight="16760"/>
+    <workbookView windowWidth="31160" windowHeight="16760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Inspections" sheetId="1" r:id="rId1"/>
     <sheet name="Units" sheetId="2" r:id="rId2"/>
+    <sheet name="UnitAliases" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="174">
   <si>
     <t>ID</t>
   </si>
@@ -472,6 +473,84 @@
   </si>
   <si>
     <t>管理运营时钟塔，与国际政治相关。</t>
+  </si>
+  <si>
+    <t>AliasName</t>
+  </si>
+  <si>
+    <t>密斯提尔</t>
+  </si>
+  <si>
+    <t>索罗尼亚</t>
+  </si>
+  <si>
+    <t>尤利菲斯</t>
+  </si>
+  <si>
+    <t>基修亚</t>
+  </si>
+  <si>
+    <t>奇美拉</t>
+  </si>
+  <si>
+    <t>布里西桑</t>
+  </si>
+  <si>
+    <t>尤米娜</t>
+  </si>
+  <si>
+    <t>阿尼姆斯菲亚</t>
+  </si>
+  <si>
+    <t>巴鲁叶</t>
+  </si>
+  <si>
+    <t>吉古马列</t>
+  </si>
+  <si>
+    <t>亚斯提亚</t>
+  </si>
+  <si>
+    <t>诺利吉</t>
+  </si>
+  <si>
+    <t>Mistil</t>
+  </si>
+  <si>
+    <t>Solonia</t>
+  </si>
+  <si>
+    <t>Yurifes</t>
+  </si>
+  <si>
+    <t>Kischur</t>
+  </si>
+  <si>
+    <t>Chimera</t>
+  </si>
+  <si>
+    <t>Brissan</t>
+  </si>
+  <si>
+    <t>Yomina</t>
+  </si>
+  <si>
+    <t>Animuspheria</t>
+  </si>
+  <si>
+    <t>Baruye</t>
+  </si>
+  <si>
+    <t>Jigumare</t>
+  </si>
+  <si>
+    <t>Yastiya</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>Law</t>
   </si>
 </sst>
 </file>
@@ -1092,8 +1171,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1479,7 +1559,7 @@
   <sheetPr/>
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -2113,14 +2193,14 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="B$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="9.92857142857143" customWidth="1"/>
-    <col min="3" max="3" width="26.9285714285714" customWidth="1"/>
+    <col min="3" max="3" width="32.3392857142857" customWidth="1"/>
     <col min="4" max="4" width="16.2142857142857" customWidth="1"/>
     <col min="5" max="5" width="9.42857142857143" customWidth="1"/>
     <col min="6" max="6" width="9.28571428571429" customWidth="1"/>
@@ -2539,4 +2619,337 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="9.92857142857143" customWidth="1"/>
+    <col min="2" max="2" width="14.9285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/docs/Test_Database.xlsx
+++ b/docs/Test_Database.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="31160" windowHeight="16760" activeTab="2"/>
+    <workbookView windowWidth="31160" windowHeight="16760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Inspections" sheetId="1" r:id="rId1"/>
     <sheet name="Units" sheetId="2" r:id="rId2"/>
     <sheet name="UnitAliases" sheetId="3" r:id="rId3"/>
+    <sheet name="Members" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="189">
   <si>
     <t>ID</t>
   </si>
@@ -551,6 +552,51 @@
   </si>
   <si>
     <t>Law</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>StaffID</t>
+  </si>
+  <si>
+    <t>JoinAt</t>
+  </si>
+  <si>
+    <t>BirthDay</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>IDCard</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>ResidencyAddress</t>
+  </si>
+  <si>
+    <t>PoliceStation</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -2626,7 +2672,7 @@
   <sheetPr/>
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2952,4 +2998,74 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/docs/Test_Database.xlsx
+++ b/docs/Test_Database.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="410">
   <si>
     <t>ID</t>
   </si>
@@ -597,6 +597,669 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>玛格丹尼尔·特兰贝里奥·埃尔罗德 (君主·特兰贝里奥)</t>
+  </si>
+  <si>
+    <t>ST001</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>123456789X</t>
+  </si>
+  <si>
+    <t>魔法学院博士</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>君主</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>科主任</t>
+  </si>
+  <si>
+    <t>伦敦中心区</t>
+  </si>
+  <si>
+    <t>伦敦警察局</t>
+  </si>
+  <si>
+    <t>ST002</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>234567890X</t>
+  </si>
+  <si>
+    <t>神话研究硕士</t>
+  </si>
+  <si>
+    <t>伦敦东区</t>
+  </si>
+  <si>
+    <t>卢弗雷乌斯·娜泽莱·尤利菲斯 (君主·尤利菲斯)</t>
+  </si>
+  <si>
+    <t>ST003</t>
+  </si>
+  <si>
+    <t>345678901X</t>
+  </si>
+  <si>
+    <t>灵异学博士</t>
+  </si>
+  <si>
+    <t>伦敦南区</t>
+  </si>
+  <si>
+    <t>授课包含英灵和神灵之力的术式。</t>
+  </si>
+  <si>
+    <t>卡尔玛格利夫·梅亚斯提亚·德鲁克</t>
+  </si>
+  <si>
+    <t>ST004</t>
+  </si>
+  <si>
+    <t>456789012X</t>
+  </si>
+  <si>
+    <t>矿石学博士</t>
+  </si>
+  <si>
+    <t>伦敦西区</t>
+  </si>
+  <si>
+    <t>ST005</t>
+  </si>
+  <si>
+    <t>567890123X</t>
+  </si>
+  <si>
+    <t>动物学硕士</t>
+  </si>
+  <si>
+    <t>伦敦北区</t>
+  </si>
+  <si>
+    <t>ST006</t>
+  </si>
+  <si>
+    <t>678901234X</t>
+  </si>
+  <si>
+    <t>神秘学博士</t>
+  </si>
+  <si>
+    <t>ST007</t>
+  </si>
+  <si>
+    <t>789012345X</t>
+  </si>
+  <si>
+    <t>植物科博士</t>
+  </si>
+  <si>
+    <t>ST008</t>
+  </si>
+  <si>
+    <t>890123456X</t>
+  </si>
+  <si>
+    <t>天文学硕士</t>
+  </si>
+  <si>
+    <t>授课范围包括占星术、天体运行、神学等。</t>
+  </si>
+  <si>
+    <t>伊诺莱·巴鲁叶雷塔·阿托洛霍姆 (君主·巴鲁叶雷塔)</t>
+  </si>
+  <si>
+    <t>ST009</t>
+  </si>
+  <si>
+    <t>901234567X</t>
+  </si>
+  <si>
+    <t>创造学博士</t>
+  </si>
+  <si>
+    <t>ST010</t>
+  </si>
+  <si>
+    <t>012345678X</t>
+  </si>
+  <si>
+    <t>诅咒学硕士</t>
+  </si>
+  <si>
+    <t>ST011</t>
+  </si>
+  <si>
+    <t>考古学博士</t>
+  </si>
+  <si>
+    <t>ST012</t>
+  </si>
+  <si>
+    <t>123450987X</t>
+  </si>
+  <si>
+    <t>现代魔术硕士</t>
+  </si>
+  <si>
+    <t>ST013</t>
+  </si>
+  <si>
+    <t>234569891X</t>
+  </si>
+  <si>
+    <t>法政学博士</t>
+  </si>
+  <si>
+    <t>张伟</t>
+  </si>
+  <si>
+    <t>ST014</t>
+  </si>
+  <si>
+    <t>大学本科在读</t>
+  </si>
+  <si>
+    <t>321-654-101</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>李娜</t>
+  </si>
+  <si>
+    <t>ST015</t>
+  </si>
+  <si>
+    <t>321-654-102</t>
+  </si>
+  <si>
+    <t>王强</t>
+  </si>
+  <si>
+    <t>ST016</t>
+  </si>
+  <si>
+    <t>321-654-103</t>
+  </si>
+  <si>
+    <t>周玲</t>
+  </si>
+  <si>
+    <t>ST017</t>
+  </si>
+  <si>
+    <t>321-654-104</t>
+  </si>
+  <si>
+    <t>刘明</t>
+  </si>
+  <si>
+    <t>ST018</t>
+  </si>
+  <si>
+    <t>321-654-105</t>
+  </si>
+  <si>
+    <t>陈晨</t>
+  </si>
+  <si>
+    <t>ST019</t>
+  </si>
+  <si>
+    <t>321-654-106</t>
+  </si>
+  <si>
+    <t>黄安</t>
+  </si>
+  <si>
+    <t>ST020</t>
+  </si>
+  <si>
+    <t>321-654-107</t>
+  </si>
+  <si>
+    <t>张丽</t>
+  </si>
+  <si>
+    <t>ST021</t>
+  </si>
+  <si>
+    <t>321-654-108</t>
+  </si>
+  <si>
+    <t>王磊</t>
+  </si>
+  <si>
+    <t>ST022</t>
+  </si>
+  <si>
+    <t>321-654-109</t>
+  </si>
+  <si>
+    <t>唐欣</t>
+  </si>
+  <si>
+    <t>ST023</t>
+  </si>
+  <si>
+    <t>321-654-110</t>
+  </si>
+  <si>
+    <t>高峰</t>
+  </si>
+  <si>
+    <t>ST024</t>
+  </si>
+  <si>
+    <t>321-654-111</t>
+  </si>
+  <si>
+    <t>邓玉</t>
+  </si>
+  <si>
+    <t>ST025</t>
+  </si>
+  <si>
+    <t>321-654-112</t>
+  </si>
+  <si>
+    <t>赵敏</t>
+  </si>
+  <si>
+    <t>ST026</t>
+  </si>
+  <si>
+    <t>321-654-113</t>
+  </si>
+  <si>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>ST027</t>
+  </si>
+  <si>
+    <t>UK12345678</t>
+  </si>
+  <si>
+    <t>University Student</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>321-654-201</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>London, UK</t>
+  </si>
+  <si>
+    <t>Metropolitan</t>
+  </si>
+  <si>
+    <t>Emma Johnson</t>
+  </si>
+  <si>
+    <t>ST028</t>
+  </si>
+  <si>
+    <t>UK23456789</t>
+  </si>
+  <si>
+    <t>321-654-202</t>
+  </si>
+  <si>
+    <t>Manchester, UK</t>
+  </si>
+  <si>
+    <t>Greater Manchester</t>
+  </si>
+  <si>
+    <t>William Brown</t>
+  </si>
+  <si>
+    <t>ST029</t>
+  </si>
+  <si>
+    <t>UK34567890</t>
+  </si>
+  <si>
+    <t>321-654-203</t>
+  </si>
+  <si>
+    <t>Birmingham, UK</t>
+  </si>
+  <si>
+    <t>West Midlands</t>
+  </si>
+  <si>
+    <t>Olivia Williams</t>
+  </si>
+  <si>
+    <t>ST030</t>
+  </si>
+  <si>
+    <t>UK45678901</t>
+  </si>
+  <si>
+    <t>321-654-204</t>
+  </si>
+  <si>
+    <t>Glasgow, UK</t>
+  </si>
+  <si>
+    <t>Strathclyde</t>
+  </si>
+  <si>
+    <t>James Jones</t>
+  </si>
+  <si>
+    <t>ST031</t>
+  </si>
+  <si>
+    <t>UK56789012</t>
+  </si>
+  <si>
+    <t>321-654-205</t>
+  </si>
+  <si>
+    <t>Edinburgh, UK</t>
+  </si>
+  <si>
+    <t>Lothian</t>
+  </si>
+  <si>
+    <t>Sophie Evans</t>
+  </si>
+  <si>
+    <t>ST032</t>
+  </si>
+  <si>
+    <t>UK67890123</t>
+  </si>
+  <si>
+    <t>321-654-206</t>
+  </si>
+  <si>
+    <t>Cardiff, UK</t>
+  </si>
+  <si>
+    <t>South Wales</t>
+  </si>
+  <si>
+    <t>Daniel Thomas</t>
+  </si>
+  <si>
+    <t>ST033</t>
+  </si>
+  <si>
+    <t>UK78901234</t>
+  </si>
+  <si>
+    <t>321-654-207</t>
+  </si>
+  <si>
+    <t>Liverpool, UK</t>
+  </si>
+  <si>
+    <t>Merseyside</t>
+  </si>
+  <si>
+    <t>Mia White</t>
+  </si>
+  <si>
+    <t>ST034</t>
+  </si>
+  <si>
+    <t>UK89012345</t>
+  </si>
+  <si>
+    <t>321-654-208</t>
+  </si>
+  <si>
+    <t>Leeds, UK</t>
+  </si>
+  <si>
+    <t>West Yorkshire</t>
+  </si>
+  <si>
+    <t>Samuel Harris</t>
+  </si>
+  <si>
+    <t>ST035</t>
+  </si>
+  <si>
+    <t>UK90123456</t>
+  </si>
+  <si>
+    <t>321-654-209</t>
+  </si>
+  <si>
+    <t>Bristol, UK</t>
+  </si>
+  <si>
+    <t>Avon and Somerset</t>
+  </si>
+  <si>
+    <t>Charlotte Martin</t>
+  </si>
+  <si>
+    <t>ST036</t>
+  </si>
+  <si>
+    <t>UK01234567</t>
+  </si>
+  <si>
+    <t>321-654-210</t>
+  </si>
+  <si>
+    <t>Sheffield, UK</t>
+  </si>
+  <si>
+    <t>South Yorkshire</t>
+  </si>
+  <si>
+    <t>Haruto Tanaka</t>
+  </si>
+  <si>
+    <t>ST037</t>
+  </si>
+  <si>
+    <t>JP12345678</t>
+  </si>
+  <si>
+    <t>322-123-211</t>
+  </si>
+  <si>
+    <t>Tokyo, Japan</t>
+  </si>
+  <si>
+    <t>Tokyo Metro</t>
+  </si>
+  <si>
+    <t>Yuki Saito</t>
+  </si>
+  <si>
+    <t>ST038</t>
+  </si>
+  <si>
+    <t>JP23456789</t>
+  </si>
+  <si>
+    <t>322-123-212</t>
+  </si>
+  <si>
+    <t>Osaka, Japan</t>
+  </si>
+  <si>
+    <t>Osaka Pref.</t>
+  </si>
+  <si>
+    <t>Kaito Yamamoto</t>
+  </si>
+  <si>
+    <t>ST039</t>
+  </si>
+  <si>
+    <t>JP34567890</t>
+  </si>
+  <si>
+    <t>322-123-213</t>
+  </si>
+  <si>
+    <t>Kyoto, Japan</t>
+  </si>
+  <si>
+    <t>Kyoto Pref.</t>
+  </si>
+  <si>
+    <t>Sakura Nakamura</t>
+  </si>
+  <si>
+    <t>ST040</t>
+  </si>
+  <si>
+    <t>JP45678901</t>
+  </si>
+  <si>
+    <t>322-123-214</t>
+  </si>
+  <si>
+    <t>Sapporo, Japan</t>
+  </si>
+  <si>
+    <t>Hokkaido Pref.</t>
+  </si>
+  <si>
+    <t>Daiki Suzuki</t>
+  </si>
+  <si>
+    <t>ST041</t>
+  </si>
+  <si>
+    <t>JP56789012</t>
+  </si>
+  <si>
+    <t>322-123-215</t>
+  </si>
+  <si>
+    <t>Nagoya, Japan</t>
+  </si>
+  <si>
+    <t>Aichi Pref.</t>
+  </si>
+  <si>
+    <t>Aoi Watanabe</t>
+  </si>
+  <si>
+    <t>ST042</t>
+  </si>
+  <si>
+    <t>JP67890123</t>
+  </si>
+  <si>
+    <t>322-123-216</t>
+  </si>
+  <si>
+    <t>Fukuoka, Japan</t>
+  </si>
+  <si>
+    <t>Fukuoka Pref.</t>
+  </si>
+  <si>
+    <t>Ren Kobayashi</t>
+  </si>
+  <si>
+    <t>ST043</t>
+  </si>
+  <si>
+    <t>JP78901234</t>
+  </si>
+  <si>
+    <t>322-123-217</t>
+  </si>
+  <si>
+    <t>Kobe, Japan</t>
+  </si>
+  <si>
+    <t>Hyogo Pref.</t>
+  </si>
+  <si>
+    <t>Hana Takahashi</t>
+  </si>
+  <si>
+    <t>ST044</t>
+  </si>
+  <si>
+    <t>JP89012345</t>
+  </si>
+  <si>
+    <t>322-123-218</t>
+  </si>
+  <si>
+    <t>Hiroshima, Japan</t>
+  </si>
+  <si>
+    <t>Hiroshima Pref.</t>
+  </si>
+  <si>
+    <t>Sota Kato</t>
+  </si>
+  <si>
+    <t>ST045</t>
+  </si>
+  <si>
+    <t>JP90123456</t>
+  </si>
+  <si>
+    <t>322-123-219</t>
+  </si>
+  <si>
+    <t>Sendai, Japan</t>
+  </si>
+  <si>
+    <t>Miyagi Pref.</t>
+  </si>
+  <si>
+    <t>Moe Fujimoto</t>
+  </si>
+  <si>
+    <t>ST046</t>
+  </si>
+  <si>
+    <t>JP01234567</t>
+  </si>
+  <si>
+    <t>322-123-220</t>
+  </si>
+  <si>
+    <t>Yokohama, Japan</t>
+  </si>
+  <si>
+    <t>Kanagawa Pref.</t>
   </si>
 </sst>
 </file>
@@ -1217,8 +1880,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2239,7 +2903,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:C$1048576"/>
+      <selection activeCell="C6" sqref="A1:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
@@ -2691,306 +3355,306 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3003,13 +3667,29 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="B26" sqref="B26:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <cols>
+    <col min="1" max="1" width="62.0446428571429" customWidth="1"/>
+    <col min="3" max="3" width="14.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="13.2410714285714" customWidth="1"/>
+    <col min="6" max="6" width="12.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="14.9285714285714" customWidth="1"/>
+    <col min="9" max="9" width="12.0714285714286" customWidth="1"/>
+    <col min="10" max="10" width="5.85714285714286" customWidth="1"/>
+    <col min="11" max="11" width="7.07142857142857" customWidth="1"/>
+    <col min="12" max="12" width="9.92857142857143" customWidth="1"/>
+    <col min="13" max="13" width="14.4285714285714" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="17.7857142857143" customWidth="1"/>
+    <col min="16" max="16" width="13.4285714285714" customWidth="1"/>
+    <col min="17" max="17" width="53.2142857142857" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
@@ -3062,6 +3742,2285 @@
       </c>
       <c r="Q1" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="1">
+        <v>37012</v>
+      </c>
+      <c r="D2" s="1">
+        <v>27467</v>
+      </c>
+      <c r="E2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O2" t="s">
+        <v>198</v>
+      </c>
+      <c r="P2" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="1">
+        <v>37330</v>
+      </c>
+      <c r="D3" s="1">
+        <v>29242</v>
+      </c>
+      <c r="E3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" t="s">
+        <v>195</v>
+      </c>
+      <c r="K3" t="s">
+        <v>196</v>
+      </c>
+      <c r="L3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" t="s">
+        <v>197</v>
+      </c>
+      <c r="O3" t="s">
+        <v>204</v>
+      </c>
+      <c r="P3" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="1">
+        <v>37822</v>
+      </c>
+      <c r="D4" s="1">
+        <v>28799</v>
+      </c>
+      <c r="E4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" t="s">
+        <v>163</v>
+      </c>
+      <c r="N4" t="s">
+        <v>197</v>
+      </c>
+      <c r="O4" t="s">
+        <v>209</v>
+      </c>
+      <c r="P4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="1">
+        <v>38240</v>
+      </c>
+      <c r="D5" s="1">
+        <v>27929</v>
+      </c>
+      <c r="E5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J5" t="s">
+        <v>195</v>
+      </c>
+      <c r="K5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" t="s">
+        <v>164</v>
+      </c>
+      <c r="N5" t="s">
+        <v>197</v>
+      </c>
+      <c r="O5" t="s">
+        <v>215</v>
+      </c>
+      <c r="P5" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="1">
+        <v>38711</v>
+      </c>
+      <c r="D6" s="1">
+        <v>31197</v>
+      </c>
+      <c r="E6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" t="s">
+        <v>195</v>
+      </c>
+      <c r="K6" t="s">
+        <v>196</v>
+      </c>
+      <c r="L6" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" t="s">
+        <v>165</v>
+      </c>
+      <c r="N6" t="s">
+        <v>197</v>
+      </c>
+      <c r="O6" t="s">
+        <v>219</v>
+      </c>
+      <c r="P6" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="1">
+        <v>38993</v>
+      </c>
+      <c r="D7" s="1">
+        <v>29198</v>
+      </c>
+      <c r="E7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H7" t="s">
+        <v>194</v>
+      </c>
+      <c r="I7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" t="s">
+        <v>166</v>
+      </c>
+      <c r="N7" t="s">
+        <v>197</v>
+      </c>
+      <c r="O7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="1">
+        <v>39397</v>
+      </c>
+      <c r="D8" s="1">
+        <v>30178</v>
+      </c>
+      <c r="E8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8" t="s">
+        <v>225</v>
+      </c>
+      <c r="H8" t="s">
+        <v>194</v>
+      </c>
+      <c r="I8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M8" t="s">
+        <v>167</v>
+      </c>
+      <c r="N8" t="s">
+        <v>197</v>
+      </c>
+      <c r="O8" t="s">
+        <v>204</v>
+      </c>
+      <c r="P8" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="1">
+        <v>39560</v>
+      </c>
+      <c r="D9" s="1">
+        <v>30614</v>
+      </c>
+      <c r="E9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G9" t="s">
+        <v>228</v>
+      </c>
+      <c r="H9" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" t="s">
+        <v>195</v>
+      </c>
+      <c r="K9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="s">
+        <v>168</v>
+      </c>
+      <c r="N9" t="s">
+        <v>197</v>
+      </c>
+      <c r="O9" t="s">
+        <v>209</v>
+      </c>
+      <c r="P9" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="1">
+        <v>39830</v>
+      </c>
+      <c r="D10" s="1">
+        <v>28218</v>
+      </c>
+      <c r="E10" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="s">
+        <v>169</v>
+      </c>
+      <c r="N10" t="s">
+        <v>197</v>
+      </c>
+      <c r="O10" t="s">
+        <v>215</v>
+      </c>
+      <c r="P10" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="1">
+        <v>40395</v>
+      </c>
+      <c r="D11" s="1">
+        <v>30937</v>
+      </c>
+      <c r="E11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" t="s">
+        <v>235</v>
+      </c>
+      <c r="G11" t="s">
+        <v>236</v>
+      </c>
+      <c r="H11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>195</v>
+      </c>
+      <c r="K11" t="s">
+        <v>196</v>
+      </c>
+      <c r="L11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" t="s">
+        <v>170</v>
+      </c>
+      <c r="N11" t="s">
+        <v>197</v>
+      </c>
+      <c r="O11" t="s">
+        <v>219</v>
+      </c>
+      <c r="P11" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="1">
+        <v>40853</v>
+      </c>
+      <c r="D12" s="1">
+        <v>27929</v>
+      </c>
+      <c r="E12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" t="s">
+        <v>195</v>
+      </c>
+      <c r="K12" t="s">
+        <v>196</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="s">
+        <v>171</v>
+      </c>
+      <c r="N12" t="s">
+        <v>197</v>
+      </c>
+      <c r="O12" t="s">
+        <v>198</v>
+      </c>
+      <c r="P12" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="1">
+        <v>40953</v>
+      </c>
+      <c r="D13" s="1">
+        <v>29790</v>
+      </c>
+      <c r="E13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G13" t="s">
+        <v>241</v>
+      </c>
+      <c r="H13" t="s">
+        <v>194</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>195</v>
+      </c>
+      <c r="K13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="s">
+        <v>172</v>
+      </c>
+      <c r="N13" t="s">
+        <v>197</v>
+      </c>
+      <c r="O13" t="s">
+        <v>204</v>
+      </c>
+      <c r="P13" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="1">
+        <v>41415</v>
+      </c>
+      <c r="D14" s="1">
+        <v>31462</v>
+      </c>
+      <c r="E14" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" t="s">
+        <v>243</v>
+      </c>
+      <c r="G14" t="s">
+        <v>244</v>
+      </c>
+      <c r="H14" t="s">
+        <v>194</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>195</v>
+      </c>
+      <c r="K14" t="s">
+        <v>196</v>
+      </c>
+      <c r="L14" t="s">
+        <v>141</v>
+      </c>
+      <c r="M14" t="s">
+        <v>173</v>
+      </c>
+      <c r="N14" t="s">
+        <v>197</v>
+      </c>
+      <c r="O14" t="s">
+        <v>209</v>
+      </c>
+      <c r="P14" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D15" s="1">
+        <v>37753</v>
+      </c>
+      <c r="E15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F15">
+        <v>4455667788</v>
+      </c>
+      <c r="G15" t="s">
+        <v>247</v>
+      </c>
+      <c r="H15" t="s">
+        <v>194</v>
+      </c>
+      <c r="I15" t="s">
+        <v>248</v>
+      </c>
+      <c r="J15" t="s">
+        <v>249</v>
+      </c>
+      <c r="K15" t="s">
+        <v>250</v>
+      </c>
+      <c r="L15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" t="s">
+        <v>161</v>
+      </c>
+      <c r="N15" t="s">
+        <v>249</v>
+      </c>
+      <c r="O15" t="s">
+        <v>215</v>
+      </c>
+      <c r="P15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D16" s="1">
+        <v>38260</v>
+      </c>
+      <c r="E16" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16">
+        <v>1122334455</v>
+      </c>
+      <c r="G16" t="s">
+        <v>247</v>
+      </c>
+      <c r="H16" t="s">
+        <v>194</v>
+      </c>
+      <c r="I16" t="s">
+        <v>253</v>
+      </c>
+      <c r="J16" t="s">
+        <v>249</v>
+      </c>
+      <c r="K16" t="s">
+        <v>250</v>
+      </c>
+      <c r="L16" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" t="s">
+        <v>162</v>
+      </c>
+      <c r="N16" t="s">
+        <v>249</v>
+      </c>
+      <c r="O16" t="s">
+        <v>198</v>
+      </c>
+      <c r="P16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D17" s="1">
+        <v>37945</v>
+      </c>
+      <c r="E17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17">
+        <v>2233445566</v>
+      </c>
+      <c r="G17" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" t="s">
+        <v>194</v>
+      </c>
+      <c r="I17" t="s">
+        <v>256</v>
+      </c>
+      <c r="J17" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" t="s">
+        <v>250</v>
+      </c>
+      <c r="L17" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" t="s">
+        <v>163</v>
+      </c>
+      <c r="N17" t="s">
+        <v>249</v>
+      </c>
+      <c r="O17" t="s">
+        <v>209</v>
+      </c>
+      <c r="P17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D18" s="1">
+        <v>37311</v>
+      </c>
+      <c r="E18" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18">
+        <v>3344556677</v>
+      </c>
+      <c r="G18" t="s">
+        <v>247</v>
+      </c>
+      <c r="H18" t="s">
+        <v>194</v>
+      </c>
+      <c r="I18" t="s">
+        <v>259</v>
+      </c>
+      <c r="J18" t="s">
+        <v>249</v>
+      </c>
+      <c r="K18" t="s">
+        <v>250</v>
+      </c>
+      <c r="L18" t="s">
+        <v>95</v>
+      </c>
+      <c r="M18" t="s">
+        <v>164</v>
+      </c>
+      <c r="N18" t="s">
+        <v>249</v>
+      </c>
+      <c r="O18" t="s">
+        <v>204</v>
+      </c>
+      <c r="P18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>260</v>
+      </c>
+      <c r="B19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D19" s="1">
+        <v>37817</v>
+      </c>
+      <c r="E19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19">
+        <v>5566778899</v>
+      </c>
+      <c r="G19" t="s">
+        <v>247</v>
+      </c>
+      <c r="H19" t="s">
+        <v>194</v>
+      </c>
+      <c r="I19" t="s">
+        <v>262</v>
+      </c>
+      <c r="J19" t="s">
+        <v>249</v>
+      </c>
+      <c r="K19" t="s">
+        <v>250</v>
+      </c>
+      <c r="L19" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" t="s">
+        <v>165</v>
+      </c>
+      <c r="N19" t="s">
+        <v>249</v>
+      </c>
+      <c r="O19" t="s">
+        <v>219</v>
+      </c>
+      <c r="P19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D20" s="1">
+        <v>38144</v>
+      </c>
+      <c r="E20" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20">
+        <v>6677889900</v>
+      </c>
+      <c r="G20" t="s">
+        <v>247</v>
+      </c>
+      <c r="H20" t="s">
+        <v>194</v>
+      </c>
+      <c r="I20" t="s">
+        <v>265</v>
+      </c>
+      <c r="J20" t="s">
+        <v>249</v>
+      </c>
+      <c r="K20" t="s">
+        <v>250</v>
+      </c>
+      <c r="L20" t="s">
+        <v>105</v>
+      </c>
+      <c r="M20" t="s">
+        <v>166</v>
+      </c>
+      <c r="N20" t="s">
+        <v>249</v>
+      </c>
+      <c r="O20" t="s">
+        <v>198</v>
+      </c>
+      <c r="P20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>266</v>
+      </c>
+      <c r="B21" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D21" s="1">
+        <v>37972</v>
+      </c>
+      <c r="E21" t="s">
+        <v>191</v>
+      </c>
+      <c r="F21">
+        <v>7788990011</v>
+      </c>
+      <c r="G21" t="s">
+        <v>247</v>
+      </c>
+      <c r="H21" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" t="s">
+        <v>268</v>
+      </c>
+      <c r="J21" t="s">
+        <v>249</v>
+      </c>
+      <c r="K21" t="s">
+        <v>250</v>
+      </c>
+      <c r="L21" t="s">
+        <v>110</v>
+      </c>
+      <c r="M21" t="s">
+        <v>167</v>
+      </c>
+      <c r="N21" t="s">
+        <v>249</v>
+      </c>
+      <c r="O21" t="s">
+        <v>215</v>
+      </c>
+      <c r="P21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>269</v>
+      </c>
+      <c r="B22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D22" s="1">
+        <v>37344</v>
+      </c>
+      <c r="E22" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22">
+        <v>8899001122</v>
+      </c>
+      <c r="G22" t="s">
+        <v>247</v>
+      </c>
+      <c r="H22" t="s">
+        <v>194</v>
+      </c>
+      <c r="I22" t="s">
+        <v>271</v>
+      </c>
+      <c r="J22" t="s">
+        <v>249</v>
+      </c>
+      <c r="K22" t="s">
+        <v>250</v>
+      </c>
+      <c r="L22" t="s">
+        <v>115</v>
+      </c>
+      <c r="M22" t="s">
+        <v>168</v>
+      </c>
+      <c r="N22" t="s">
+        <v>249</v>
+      </c>
+      <c r="O22" t="s">
+        <v>209</v>
+      </c>
+      <c r="P22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>272</v>
+      </c>
+      <c r="B23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D23" s="1">
+        <v>37630</v>
+      </c>
+      <c r="E23" t="s">
+        <v>191</v>
+      </c>
+      <c r="F23">
+        <v>9900112233</v>
+      </c>
+      <c r="G23" t="s">
+        <v>247</v>
+      </c>
+      <c r="H23" t="s">
+        <v>194</v>
+      </c>
+      <c r="I23" t="s">
+        <v>274</v>
+      </c>
+      <c r="J23" t="s">
+        <v>249</v>
+      </c>
+      <c r="K23" t="s">
+        <v>250</v>
+      </c>
+      <c r="L23" t="s">
+        <v>120</v>
+      </c>
+      <c r="M23" t="s">
+        <v>169</v>
+      </c>
+      <c r="N23" t="s">
+        <v>249</v>
+      </c>
+      <c r="O23" t="s">
+        <v>204</v>
+      </c>
+      <c r="P23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>275</v>
+      </c>
+      <c r="B24" t="s">
+        <v>276</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D24" s="1">
+        <v>38302</v>
+      </c>
+      <c r="E24" t="s">
+        <v>201</v>
+      </c>
+      <c r="F24">
+        <v>11223344</v>
+      </c>
+      <c r="G24" t="s">
+        <v>247</v>
+      </c>
+      <c r="H24" t="s">
+        <v>194</v>
+      </c>
+      <c r="I24" t="s">
+        <v>277</v>
+      </c>
+      <c r="J24" t="s">
+        <v>249</v>
+      </c>
+      <c r="K24" t="s">
+        <v>250</v>
+      </c>
+      <c r="L24" t="s">
+        <v>125</v>
+      </c>
+      <c r="M24" t="s">
+        <v>170</v>
+      </c>
+      <c r="N24" t="s">
+        <v>249</v>
+      </c>
+      <c r="O24" t="s">
+        <v>219</v>
+      </c>
+      <c r="P24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>278</v>
+      </c>
+      <c r="B25" t="s">
+        <v>279</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D25" s="1">
+        <v>37701</v>
+      </c>
+      <c r="E25" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25">
+        <v>1122334455</v>
+      </c>
+      <c r="G25" t="s">
+        <v>247</v>
+      </c>
+      <c r="H25" t="s">
+        <v>194</v>
+      </c>
+      <c r="I25" t="s">
+        <v>280</v>
+      </c>
+      <c r="J25" t="s">
+        <v>249</v>
+      </c>
+      <c r="K25" t="s">
+        <v>250</v>
+      </c>
+      <c r="L25" t="s">
+        <v>130</v>
+      </c>
+      <c r="M25" t="s">
+        <v>171</v>
+      </c>
+      <c r="N25" t="s">
+        <v>249</v>
+      </c>
+      <c r="O25" t="s">
+        <v>198</v>
+      </c>
+      <c r="P25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>281</v>
+      </c>
+      <c r="B26" t="s">
+        <v>282</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D26" s="1">
+        <v>37456</v>
+      </c>
+      <c r="E26" t="s">
+        <v>201</v>
+      </c>
+      <c r="F26">
+        <v>2233445566</v>
+      </c>
+      <c r="G26" t="s">
+        <v>247</v>
+      </c>
+      <c r="H26" t="s">
+        <v>194</v>
+      </c>
+      <c r="I26" t="s">
+        <v>283</v>
+      </c>
+      <c r="J26" t="s">
+        <v>249</v>
+      </c>
+      <c r="K26" t="s">
+        <v>250</v>
+      </c>
+      <c r="L26" t="s">
+        <v>134</v>
+      </c>
+      <c r="M26" t="s">
+        <v>172</v>
+      </c>
+      <c r="N26" t="s">
+        <v>249</v>
+      </c>
+      <c r="O26" t="s">
+        <v>215</v>
+      </c>
+      <c r="P26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" t="s">
+        <v>284</v>
+      </c>
+      <c r="B27" t="s">
+        <v>285</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D27" s="1">
+        <v>38274</v>
+      </c>
+      <c r="E27" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27">
+        <v>3344556677</v>
+      </c>
+      <c r="G27" t="s">
+        <v>247</v>
+      </c>
+      <c r="H27" t="s">
+        <v>194</v>
+      </c>
+      <c r="I27" t="s">
+        <v>286</v>
+      </c>
+      <c r="J27" t="s">
+        <v>249</v>
+      </c>
+      <c r="K27" t="s">
+        <v>250</v>
+      </c>
+      <c r="L27" t="s">
+        <v>141</v>
+      </c>
+      <c r="M27" t="s">
+        <v>173</v>
+      </c>
+      <c r="N27" t="s">
+        <v>249</v>
+      </c>
+      <c r="O27" t="s">
+        <v>209</v>
+      </c>
+      <c r="P27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" t="s">
+        <v>287</v>
+      </c>
+      <c r="B28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D28" s="1">
+        <v>37726</v>
+      </c>
+      <c r="E28" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" t="s">
+        <v>289</v>
+      </c>
+      <c r="G28" t="s">
+        <v>290</v>
+      </c>
+      <c r="H28" t="s">
+        <v>291</v>
+      </c>
+      <c r="I28" t="s">
+        <v>292</v>
+      </c>
+      <c r="J28" t="s">
+        <v>293</v>
+      </c>
+      <c r="K28" t="s">
+        <v>250</v>
+      </c>
+      <c r="L28" t="s">
+        <v>80</v>
+      </c>
+      <c r="M28" t="s">
+        <v>161</v>
+      </c>
+      <c r="O28" t="s">
+        <v>294</v>
+      </c>
+      <c r="P28" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29" t="s">
+        <v>297</v>
+      </c>
+      <c r="C29" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D29" s="1">
+        <v>38201</v>
+      </c>
+      <c r="E29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" t="s">
+        <v>298</v>
+      </c>
+      <c r="G29" t="s">
+        <v>290</v>
+      </c>
+      <c r="H29" t="s">
+        <v>291</v>
+      </c>
+      <c r="I29" t="s">
+        <v>299</v>
+      </c>
+      <c r="J29" t="s">
+        <v>293</v>
+      </c>
+      <c r="K29" t="s">
+        <v>250</v>
+      </c>
+      <c r="L29" t="s">
+        <v>85</v>
+      </c>
+      <c r="M29" t="s">
+        <v>162</v>
+      </c>
+      <c r="O29" t="s">
+        <v>300</v>
+      </c>
+      <c r="P29" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
+        <v>302</v>
+      </c>
+      <c r="B30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D30" s="1">
+        <v>37818</v>
+      </c>
+      <c r="E30" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" t="s">
+        <v>304</v>
+      </c>
+      <c r="G30" t="s">
+        <v>290</v>
+      </c>
+      <c r="H30" t="s">
+        <v>291</v>
+      </c>
+      <c r="I30" t="s">
+        <v>305</v>
+      </c>
+      <c r="J30" t="s">
+        <v>293</v>
+      </c>
+      <c r="K30" t="s">
+        <v>250</v>
+      </c>
+      <c r="L30" t="s">
+        <v>90</v>
+      </c>
+      <c r="M30" t="s">
+        <v>163</v>
+      </c>
+      <c r="O30" t="s">
+        <v>306</v>
+      </c>
+      <c r="P30" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>308</v>
+      </c>
+      <c r="B31" t="s">
+        <v>309</v>
+      </c>
+      <c r="C31" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D31" s="1">
+        <v>37591</v>
+      </c>
+      <c r="E31" t="s">
+        <v>201</v>
+      </c>
+      <c r="F31" t="s">
+        <v>310</v>
+      </c>
+      <c r="G31" t="s">
+        <v>290</v>
+      </c>
+      <c r="H31" t="s">
+        <v>291</v>
+      </c>
+      <c r="I31" t="s">
+        <v>311</v>
+      </c>
+      <c r="J31" t="s">
+        <v>293</v>
+      </c>
+      <c r="K31" t="s">
+        <v>250</v>
+      </c>
+      <c r="L31" t="s">
+        <v>95</v>
+      </c>
+      <c r="M31" t="s">
+        <v>164</v>
+      </c>
+      <c r="O31" t="s">
+        <v>312</v>
+      </c>
+      <c r="P31" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" t="s">
+        <v>314</v>
+      </c>
+      <c r="B32" t="s">
+        <v>315</v>
+      </c>
+      <c r="C32" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D32" s="1">
+        <v>37764</v>
+      </c>
+      <c r="E32" t="s">
+        <v>191</v>
+      </c>
+      <c r="F32" t="s">
+        <v>316</v>
+      </c>
+      <c r="G32" t="s">
+        <v>290</v>
+      </c>
+      <c r="H32" t="s">
+        <v>291</v>
+      </c>
+      <c r="I32" t="s">
+        <v>317</v>
+      </c>
+      <c r="J32" t="s">
+        <v>293</v>
+      </c>
+      <c r="K32" t="s">
+        <v>250</v>
+      </c>
+      <c r="L32" t="s">
+        <v>100</v>
+      </c>
+      <c r="M32" t="s">
+        <v>165</v>
+      </c>
+      <c r="O32" t="s">
+        <v>318</v>
+      </c>
+      <c r="P32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D33" s="1">
+        <v>38243</v>
+      </c>
+      <c r="E33" t="s">
+        <v>201</v>
+      </c>
+      <c r="F33" t="s">
+        <v>322</v>
+      </c>
+      <c r="G33" t="s">
+        <v>290</v>
+      </c>
+      <c r="H33" t="s">
+        <v>291</v>
+      </c>
+      <c r="I33" t="s">
+        <v>323</v>
+      </c>
+      <c r="J33" t="s">
+        <v>293</v>
+      </c>
+      <c r="K33" t="s">
+        <v>250</v>
+      </c>
+      <c r="L33" t="s">
+        <v>105</v>
+      </c>
+      <c r="M33" t="s">
+        <v>166</v>
+      </c>
+      <c r="O33" t="s">
+        <v>324</v>
+      </c>
+      <c r="P33" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" t="s">
+        <v>326</v>
+      </c>
+      <c r="B34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D34" s="1">
+        <v>37955</v>
+      </c>
+      <c r="E34" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" t="s">
+        <v>328</v>
+      </c>
+      <c r="G34" t="s">
+        <v>290</v>
+      </c>
+      <c r="H34" t="s">
+        <v>291</v>
+      </c>
+      <c r="I34" t="s">
+        <v>329</v>
+      </c>
+      <c r="J34" t="s">
+        <v>293</v>
+      </c>
+      <c r="K34" t="s">
+        <v>250</v>
+      </c>
+      <c r="L34" t="s">
+        <v>110</v>
+      </c>
+      <c r="M34" t="s">
+        <v>167</v>
+      </c>
+      <c r="O34" t="s">
+        <v>330</v>
+      </c>
+      <c r="P34" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
+        <v>332</v>
+      </c>
+      <c r="B35" t="s">
+        <v>333</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D35" s="1">
+        <v>37435</v>
+      </c>
+      <c r="E35" t="s">
+        <v>201</v>
+      </c>
+      <c r="F35" t="s">
+        <v>334</v>
+      </c>
+      <c r="G35" t="s">
+        <v>290</v>
+      </c>
+      <c r="H35" t="s">
+        <v>291</v>
+      </c>
+      <c r="I35" t="s">
+        <v>335</v>
+      </c>
+      <c r="J35" t="s">
+        <v>293</v>
+      </c>
+      <c r="K35" t="s">
+        <v>250</v>
+      </c>
+      <c r="L35" t="s">
+        <v>115</v>
+      </c>
+      <c r="M35" t="s">
+        <v>168</v>
+      </c>
+      <c r="O35" t="s">
+        <v>336</v>
+      </c>
+      <c r="P35" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" t="s">
+        <v>338</v>
+      </c>
+      <c r="B36" t="s">
+        <v>339</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D36" s="1">
+        <v>37670</v>
+      </c>
+      <c r="E36" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" t="s">
+        <v>340</v>
+      </c>
+      <c r="G36" t="s">
+        <v>290</v>
+      </c>
+      <c r="H36" t="s">
+        <v>291</v>
+      </c>
+      <c r="I36" t="s">
+        <v>341</v>
+      </c>
+      <c r="J36" t="s">
+        <v>293</v>
+      </c>
+      <c r="K36" t="s">
+        <v>250</v>
+      </c>
+      <c r="L36" t="s">
+        <v>120</v>
+      </c>
+      <c r="M36" t="s">
+        <v>169</v>
+      </c>
+      <c r="O36" t="s">
+        <v>342</v>
+      </c>
+      <c r="P36" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" t="s">
+        <v>344</v>
+      </c>
+      <c r="B37" t="s">
+        <v>345</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D37" s="1">
+        <v>38104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>201</v>
+      </c>
+      <c r="F37" t="s">
+        <v>346</v>
+      </c>
+      <c r="G37" t="s">
+        <v>290</v>
+      </c>
+      <c r="H37" t="s">
+        <v>291</v>
+      </c>
+      <c r="I37" t="s">
+        <v>347</v>
+      </c>
+      <c r="J37" t="s">
+        <v>293</v>
+      </c>
+      <c r="K37" t="s">
+        <v>250</v>
+      </c>
+      <c r="L37" t="s">
+        <v>125</v>
+      </c>
+      <c r="M37" t="s">
+        <v>170</v>
+      </c>
+      <c r="O37" t="s">
+        <v>348</v>
+      </c>
+      <c r="P37" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" t="s">
+        <v>350</v>
+      </c>
+      <c r="B38" t="s">
+        <v>351</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D38" s="1">
+        <v>37751</v>
+      </c>
+      <c r="E38" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" t="s">
+        <v>352</v>
+      </c>
+      <c r="G38" t="s">
+        <v>290</v>
+      </c>
+      <c r="H38" t="s">
+        <v>291</v>
+      </c>
+      <c r="I38" t="s">
+        <v>353</v>
+      </c>
+      <c r="J38" t="s">
+        <v>293</v>
+      </c>
+      <c r="K38" t="s">
+        <v>250</v>
+      </c>
+      <c r="L38" t="s">
+        <v>80</v>
+      </c>
+      <c r="M38" t="s">
+        <v>161</v>
+      </c>
+      <c r="O38" t="s">
+        <v>354</v>
+      </c>
+      <c r="P38" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" t="s">
+        <v>356</v>
+      </c>
+      <c r="B39" t="s">
+        <v>357</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D39" s="1">
+        <v>37997</v>
+      </c>
+      <c r="E39" t="s">
+        <v>201</v>
+      </c>
+      <c r="F39" t="s">
+        <v>358</v>
+      </c>
+      <c r="G39" t="s">
+        <v>290</v>
+      </c>
+      <c r="H39" t="s">
+        <v>291</v>
+      </c>
+      <c r="I39" t="s">
+        <v>359</v>
+      </c>
+      <c r="J39" t="s">
+        <v>293</v>
+      </c>
+      <c r="K39" t="s">
+        <v>250</v>
+      </c>
+      <c r="L39" t="s">
+        <v>85</v>
+      </c>
+      <c r="M39" t="s">
+        <v>162</v>
+      </c>
+      <c r="O39" t="s">
+        <v>360</v>
+      </c>
+      <c r="P39" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" t="s">
+        <v>362</v>
+      </c>
+      <c r="B40" t="s">
+        <v>363</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D40" s="1">
+        <v>37871</v>
+      </c>
+      <c r="E40" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40" t="s">
+        <v>364</v>
+      </c>
+      <c r="G40" t="s">
+        <v>290</v>
+      </c>
+      <c r="H40" t="s">
+        <v>291</v>
+      </c>
+      <c r="I40" t="s">
+        <v>365</v>
+      </c>
+      <c r="J40" t="s">
+        <v>293</v>
+      </c>
+      <c r="K40" t="s">
+        <v>250</v>
+      </c>
+      <c r="L40" t="s">
+        <v>90</v>
+      </c>
+      <c r="M40" t="s">
+        <v>163</v>
+      </c>
+      <c r="O40" t="s">
+        <v>366</v>
+      </c>
+      <c r="P40" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" t="s">
+        <v>368</v>
+      </c>
+      <c r="B41" t="s">
+        <v>369</v>
+      </c>
+      <c r="C41" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D41" s="1">
+        <v>37334</v>
+      </c>
+      <c r="E41" t="s">
+        <v>201</v>
+      </c>
+      <c r="F41" t="s">
+        <v>370</v>
+      </c>
+      <c r="G41" t="s">
+        <v>290</v>
+      </c>
+      <c r="H41" t="s">
+        <v>291</v>
+      </c>
+      <c r="I41" t="s">
+        <v>371</v>
+      </c>
+      <c r="J41" t="s">
+        <v>293</v>
+      </c>
+      <c r="K41" t="s">
+        <v>250</v>
+      </c>
+      <c r="L41" t="s">
+        <v>95</v>
+      </c>
+      <c r="M41" t="s">
+        <v>164</v>
+      </c>
+      <c r="O41" t="s">
+        <v>372</v>
+      </c>
+      <c r="P41" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" t="s">
+        <v>374</v>
+      </c>
+      <c r="B42" t="s">
+        <v>375</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D42" s="1">
+        <v>37674</v>
+      </c>
+      <c r="E42" t="s">
+        <v>191</v>
+      </c>
+      <c r="F42" t="s">
+        <v>376</v>
+      </c>
+      <c r="G42" t="s">
+        <v>290</v>
+      </c>
+      <c r="H42" t="s">
+        <v>291</v>
+      </c>
+      <c r="I42" t="s">
+        <v>377</v>
+      </c>
+      <c r="J42" t="s">
+        <v>293</v>
+      </c>
+      <c r="K42" t="s">
+        <v>250</v>
+      </c>
+      <c r="L42" t="s">
+        <v>100</v>
+      </c>
+      <c r="M42" t="s">
+        <v>165</v>
+      </c>
+      <c r="O42" t="s">
+        <v>378</v>
+      </c>
+      <c r="P42" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" t="s">
+        <v>380</v>
+      </c>
+      <c r="B43" t="s">
+        <v>381</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D43" s="1">
+        <v>38176</v>
+      </c>
+      <c r="E43" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" t="s">
+        <v>382</v>
+      </c>
+      <c r="G43" t="s">
+        <v>290</v>
+      </c>
+      <c r="H43" t="s">
+        <v>291</v>
+      </c>
+      <c r="I43" t="s">
+        <v>383</v>
+      </c>
+      <c r="J43" t="s">
+        <v>293</v>
+      </c>
+      <c r="K43" t="s">
+        <v>250</v>
+      </c>
+      <c r="L43" t="s">
+        <v>105</v>
+      </c>
+      <c r="M43" t="s">
+        <v>166</v>
+      </c>
+      <c r="O43" t="s">
+        <v>384</v>
+      </c>
+      <c r="P43" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" t="s">
+        <v>386</v>
+      </c>
+      <c r="B44" t="s">
+        <v>387</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D44" s="1">
+        <v>37924</v>
+      </c>
+      <c r="E44" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44" t="s">
+        <v>388</v>
+      </c>
+      <c r="G44" t="s">
+        <v>290</v>
+      </c>
+      <c r="H44" t="s">
+        <v>291</v>
+      </c>
+      <c r="I44" t="s">
+        <v>389</v>
+      </c>
+      <c r="J44" t="s">
+        <v>293</v>
+      </c>
+      <c r="K44" t="s">
+        <v>250</v>
+      </c>
+      <c r="L44" t="s">
+        <v>110</v>
+      </c>
+      <c r="M44" t="s">
+        <v>167</v>
+      </c>
+      <c r="O44" t="s">
+        <v>390</v>
+      </c>
+      <c r="P44" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" t="s">
+        <v>392</v>
+      </c>
+      <c r="B45" t="s">
+        <v>393</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D45" s="1">
+        <v>37270</v>
+      </c>
+      <c r="E45" t="s">
+        <v>201</v>
+      </c>
+      <c r="F45" t="s">
+        <v>394</v>
+      </c>
+      <c r="G45" t="s">
+        <v>290</v>
+      </c>
+      <c r="H45" t="s">
+        <v>291</v>
+      </c>
+      <c r="I45" t="s">
+        <v>395</v>
+      </c>
+      <c r="J45" t="s">
+        <v>293</v>
+      </c>
+      <c r="K45" t="s">
+        <v>250</v>
+      </c>
+      <c r="L45" t="s">
+        <v>115</v>
+      </c>
+      <c r="M45" t="s">
+        <v>168</v>
+      </c>
+      <c r="O45" t="s">
+        <v>396</v>
+      </c>
+      <c r="P45" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" t="s">
+        <v>398</v>
+      </c>
+      <c r="B46" t="s">
+        <v>399</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D46" s="1">
+        <v>37938</v>
+      </c>
+      <c r="E46" t="s">
+        <v>191</v>
+      </c>
+      <c r="F46" t="s">
+        <v>400</v>
+      </c>
+      <c r="G46" t="s">
+        <v>290</v>
+      </c>
+      <c r="H46" t="s">
+        <v>291</v>
+      </c>
+      <c r="I46" t="s">
+        <v>401</v>
+      </c>
+      <c r="J46" t="s">
+        <v>293</v>
+      </c>
+      <c r="K46" t="s">
+        <v>250</v>
+      </c>
+      <c r="L46" t="s">
+        <v>120</v>
+      </c>
+      <c r="M46" t="s">
+        <v>169</v>
+      </c>
+      <c r="O46" t="s">
+        <v>402</v>
+      </c>
+      <c r="P46" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" t="s">
+        <v>404</v>
+      </c>
+      <c r="B47" t="s">
+        <v>405</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44805</v>
+      </c>
+      <c r="D47" s="1">
+        <v>38154</v>
+      </c>
+      <c r="E47" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" t="s">
+        <v>406</v>
+      </c>
+      <c r="G47" t="s">
+        <v>290</v>
+      </c>
+      <c r="H47" t="s">
+        <v>291</v>
+      </c>
+      <c r="I47" t="s">
+        <v>407</v>
+      </c>
+      <c r="J47" t="s">
+        <v>293</v>
+      </c>
+      <c r="K47" t="s">
+        <v>250</v>
+      </c>
+      <c r="L47" t="s">
+        <v>125</v>
+      </c>
+      <c r="M47" t="s">
+        <v>170</v>
+      </c>
+      <c r="O47" t="s">
+        <v>408</v>
+      </c>
+      <c r="P47" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
